--- a/Arbeitsdokumente/Suchdokumentation.xlsx
+++ b/Arbeitsdokumente/Suchdokumentation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\IT_Projekt_SS19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\IT_Projekt_SS19\Arbeitsdokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="151">
   <si>
     <t>Name:</t>
   </si>
@@ -428,6 +428,54 @@
   </si>
   <si>
     <t>https://www.jstor.org/</t>
+  </si>
+  <si>
+    <t>scholar google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">software umsetzung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">software umsetzung und einführung </t>
+  </si>
+  <si>
+    <t>software umsetzung und einführung schritte</t>
+  </si>
+  <si>
+    <t>ieeexplore.ieee.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">software implementation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">software implementation steps </t>
+  </si>
+  <si>
+    <t>dl.acm.org</t>
+  </si>
+  <si>
+    <t>software implementation</t>
+  </si>
+  <si>
+    <t>open source implementation</t>
+  </si>
+  <si>
+    <t>training concept</t>
+  </si>
+  <si>
+    <t>training phases</t>
+  </si>
+  <si>
+    <t>workshop concept</t>
+  </si>
+  <si>
+    <t>workshop phases</t>
+  </si>
+  <si>
+    <t>Artikel: Creativity on Demand: How to Plan and Execute Successful Innovation Workshops</t>
+  </si>
+  <si>
+    <t>Artikel: Flexible workshop: about the concept of flexibility</t>
   </si>
 </sst>
 </file>
@@ -557,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -605,7 +653,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1782,8 +1829,8 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2302,478 +2349,732 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="30">
         <v>43578</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="29">
         <v>160988</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="29">
         <v>2</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="29" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+    <row r="36" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="A36" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="34">
+      <c r="B36" s="33">
         <v>43578</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D36" s="32">
         <v>251893</v>
       </c>
-      <c r="E36" s="33">
-        <v>0</v>
-      </c>
-      <c r="F36" s="33" t="s">
+      <c r="E36" s="32">
+        <v>0</v>
+      </c>
+      <c r="F36" s="32" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="36">
         <v>43578</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="35">
         <v>127319</v>
       </c>
-      <c r="E37" s="36">
-        <v>0</v>
-      </c>
-      <c r="F37" s="36" t="s">
+      <c r="E37" s="35">
+        <v>0</v>
+      </c>
+      <c r="F37" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="36">
         <v>43578</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="35">
         <v>230758</v>
       </c>
-      <c r="E38" s="36">
-        <v>0</v>
-      </c>
-      <c r="F38" s="36" t="s">
+      <c r="E38" s="35">
+        <v>0</v>
+      </c>
+      <c r="F38" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="37">
+      <c r="B39" s="36">
         <v>43578</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="35">
         <v>454</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="35">
         <v>1</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="35" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="37">
+      <c r="B40" s="36">
         <v>43578</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="35">
         <v>296</v>
       </c>
-      <c r="E40" s="36">
-        <v>0</v>
-      </c>
-      <c r="F40" s="36" t="s">
+      <c r="E40" s="35">
+        <v>0</v>
+      </c>
+      <c r="F40" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B41" s="36">
         <v>43578</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="35">
         <v>284</v>
       </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
     </row>
     <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B42" s="36">
         <v>43578</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="35">
         <v>247</v>
       </c>
-      <c r="E42" s="36">
-        <v>0</v>
-      </c>
-      <c r="F42" s="36" t="s">
+      <c r="E42" s="35">
+        <v>0</v>
+      </c>
+      <c r="F42" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B43" s="36">
         <v>43579</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="35">
         <v>10161</v>
       </c>
-      <c r="E43" s="36">
-        <v>0</v>
-      </c>
-      <c r="F43" s="36" t="s">
+      <c r="E43" s="35">
+        <v>0</v>
+      </c>
+      <c r="F43" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B44" s="36">
         <v>43579</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="36">
+      <c r="D44" s="35">
         <v>3221</v>
       </c>
-      <c r="E44" s="36">
-        <v>0</v>
-      </c>
-      <c r="F44" s="36" t="s">
+      <c r="E44" s="35">
+        <v>0</v>
+      </c>
+      <c r="F44" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="37">
+      <c r="B45" s="36">
         <v>43579</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="35">
         <v>2272</v>
       </c>
-      <c r="E45" s="36">
-        <v>0</v>
-      </c>
-      <c r="F45" s="36" t="s">
+      <c r="E45" s="35">
+        <v>0</v>
+      </c>
+      <c r="F45" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="37">
+      <c r="B46" s="36">
         <v>43579</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D46" s="36">
+      <c r="D46" s="35">
         <v>1016</v>
       </c>
-      <c r="E46" s="36">
-        <v>0</v>
-      </c>
-      <c r="F46" s="36" t="s">
+      <c r="E46" s="35">
+        <v>0</v>
+      </c>
+      <c r="F46" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="37">
+      <c r="B47" s="36">
         <v>43579</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D47" s="36">
+      <c r="D47" s="35">
         <v>797</v>
       </c>
-      <c r="E47" s="36">
-        <v>0</v>
-      </c>
-      <c r="F47" s="36" t="s">
+      <c r="E47" s="35">
+        <v>0</v>
+      </c>
+      <c r="F47" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="37">
+      <c r="B48" s="36">
         <v>43579</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="36">
+      <c r="D48" s="35">
         <v>180822</v>
       </c>
-      <c r="E48" s="36">
+      <c r="E48" s="35">
         <v>1</v>
       </c>
-      <c r="F48" s="36" t="s">
+      <c r="F48" s="35" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="37">
+      <c r="B49" s="36">
         <v>43579</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="36">
+      <c r="D49" s="35">
         <v>130832</v>
       </c>
-      <c r="E49" s="36">
+      <c r="E49" s="35">
         <v>1</v>
       </c>
-      <c r="F49" s="36" t="s">
+      <c r="F49" s="35" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B50" s="36">
         <v>43579</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D50" s="36">
+      <c r="D50" s="35">
         <v>34063</v>
       </c>
-      <c r="E50" s="36">
-        <v>0</v>
-      </c>
-      <c r="F50" s="36" t="s">
+      <c r="E50" s="35">
+        <v>0</v>
+      </c>
+      <c r="F50" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B51" s="36">
         <v>43581</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="36">
+      <c r="D51" s="35">
         <v>17320</v>
       </c>
-      <c r="E51" s="36">
-        <v>0</v>
-      </c>
-      <c r="F51" s="36" t="s">
+      <c r="E51" s="35">
+        <v>0</v>
+      </c>
+      <c r="F51" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B52" s="37">
+      <c r="B52" s="36">
         <v>43581</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="36">
+      <c r="D52" s="35">
         <v>3308</v>
       </c>
-      <c r="E52" s="36">
-        <v>0</v>
-      </c>
-      <c r="F52" s="36" t="s">
+      <c r="E52" s="35">
+        <v>0</v>
+      </c>
+      <c r="F52" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="36">
         <v>43581</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="35">
         <v>39395</v>
       </c>
-      <c r="E53" s="36">
-        <v>0</v>
-      </c>
-      <c r="F53" s="36" t="s">
+      <c r="E53" s="35">
+        <v>0</v>
+      </c>
+      <c r="F53" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="37">
+      <c r="B54" s="36">
         <v>43581</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D54" s="36">
+      <c r="D54" s="35">
         <v>733</v>
       </c>
-      <c r="E54" s="36">
-        <v>0</v>
-      </c>
-      <c r="F54" s="36" t="s">
+      <c r="E54" s="35">
+        <v>0</v>
+      </c>
+      <c r="F54" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="29"/>
-      <c r="C55" s="8"/>
+      <c r="A55" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="36">
+        <v>43619</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="35">
+        <v>82700</v>
+      </c>
+      <c r="E55" s="35">
+        <v>0</v>
+      </c>
+      <c r="F55" s="35" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C56" s="8"/>
+      <c r="A56" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="36">
+        <v>43619</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="35">
+        <v>60500</v>
+      </c>
+      <c r="E56" s="35">
+        <v>0</v>
+      </c>
+      <c r="F56" s="35" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C57" s="8"/>
+      <c r="A57" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="36">
+        <v>43619</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="35">
+        <v>41800</v>
+      </c>
+      <c r="E57" s="35">
+        <v>0</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C58" s="8"/>
+      <c r="A58" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="36">
+        <v>43619</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="35">
+        <v>57347</v>
+      </c>
+      <c r="E58" s="35">
+        <v>0</v>
+      </c>
+      <c r="F58" s="35" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="59" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C59" s="8"/>
+      <c r="A59" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="36">
+        <v>43619</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="35">
+        <v>2726</v>
+      </c>
+      <c r="E59" s="35">
+        <v>0</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="60" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C60" s="8"/>
+      <c r="A60" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="36">
+        <v>43619</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="35">
+        <v>193699</v>
+      </c>
+      <c r="E60" s="35">
+        <v>0</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="61" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C61" s="8"/>
+      <c r="A61" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="36">
+        <v>43619</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" s="35">
+        <v>128401</v>
+      </c>
+      <c r="E61" s="35">
+        <v>0</v>
+      </c>
+      <c r="F61" s="35" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C62" s="8"/>
+      <c r="A62" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="36">
+        <v>43630</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="35">
+        <v>4600000</v>
+      </c>
+      <c r="E62" s="35">
+        <v>0</v>
+      </c>
+      <c r="F62" s="35" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C63" s="8"/>
+      <c r="A63" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="36">
+        <v>43630</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" s="35">
+        <v>1860000</v>
+      </c>
+      <c r="E63" s="35">
+        <v>0</v>
+      </c>
+      <c r="F63" s="35" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="64" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C64" s="8"/>
-    </row>
-    <row r="65" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C65" s="8"/>
-    </row>
-    <row r="66" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C66" s="8"/>
-    </row>
-    <row r="67" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C67" s="8"/>
-    </row>
-    <row r="68" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C68" s="8"/>
-    </row>
-    <row r="69" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C69" s="8"/>
-    </row>
-    <row r="70" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="36">
+        <v>43630</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="35">
+        <v>2720000</v>
+      </c>
+      <c r="E64" s="35">
+        <v>0</v>
+      </c>
+      <c r="F64" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="36">
+        <v>43630</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" s="35">
+        <v>2350000</v>
+      </c>
+      <c r="E65" s="35">
+        <v>0</v>
+      </c>
+      <c r="F65" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" s="36">
+        <v>43630</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="35">
+        <v>8503</v>
+      </c>
+      <c r="E66" s="35">
+        <v>1</v>
+      </c>
+      <c r="F66" s="35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="36">
+        <v>43630</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="35">
+        <v>10931</v>
+      </c>
+      <c r="E67" s="35">
+        <v>0</v>
+      </c>
+      <c r="F67" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="36">
+        <v>43630</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="35">
+        <v>11576</v>
+      </c>
+      <c r="E68" s="35">
+        <v>0</v>
+      </c>
+      <c r="F68" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="36">
+        <v>43630</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="35">
+        <v>10557</v>
+      </c>
+      <c r="E69" s="35">
+        <v>1</v>
+      </c>
+      <c r="F69" s="35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C73" s="8"/>
     </row>
-    <row r="74" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C76" s="8"/>
     </row>
-    <row r="77" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C77" s="8"/>
     </row>
-    <row r="78" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C78" s="8"/>
     </row>
-    <row r="79" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C79" s="8"/>
     </row>
-    <row r="80" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C80" s="8"/>
     </row>
     <row r="81" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
